--- a/biology/Botanique/Jardin_des_plantes_et_de_la_nature/Jardin_des_plantes_et_de_la_nature.xlsx
+++ b/biology/Botanique/Jardin_des_plantes_et_de_la_nature/Jardin_des_plantes_et_de_la_nature.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin des plantes et de la nature de Porto-Novo (JPN), anciennement appelé forêt sacrée du royaume de Porto-Novo, est créé avant  1895, probablement au XVIIe siècle. Forêt sacrée contemporaine, il est  placé sous l’autorité du royaume de Hogbonu[1].
-Il s’y déroule les règlements des litiges entre citoyens et l’exécution des sentences des condamnés à mort, sous la direction du ministre du roi, chargé des affaires judiciaires. La forêt abritait également les temples des divinités autochtones et les populations venaient y faire des prières et libations[1].
-Situé en plein quartier administratif, entre le siège de l’Assemblée Nationale et le Centre Hospitalier Départemental de l’Ouémé, le Jardin des Plantes et de la Nature de Porto-Novo est un espace vert de la ville. Il est aujourd’hui un espace didactique, qualifié de poumon vert de la ville capitale[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin des plantes et de la nature de Porto-Novo (JPN), anciennement appelé forêt sacrée du royaume de Porto-Novo, est créé avant  1895, probablement au XVIIe siècle. Forêt sacrée contemporaine, il est  placé sous l’autorité du royaume de Hogbonu.
+Il s’y déroule les règlements des litiges entre citoyens et l’exécution des sentences des condamnés à mort, sous la direction du ministre du roi, chargé des affaires judiciaires. La forêt abritait également les temples des divinités autochtones et les populations venaient y faire des prières et libations.
+Situé en plein quartier administratif, entre le siège de l’Assemblée Nationale et le Centre Hospitalier Départemental de l’Ouémé, le Jardin des Plantes et de la Nature de Porto-Novo est un espace vert de la ville. Il est aujourd’hui un espace didactique, qualifié de poumon vert de la ville capitale.
 </t>
         </is>
       </c>
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,14 +553,85 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le conservatoire (ou Musée des Plantes) et l'espace détente constituent les deux sites du Jardin des Plantes et de la Nature.  Il couvre une superficie totale de 3,8 hectares et compte environ 200 espèces répertoriées[2].
-Patrimoine culturel et historique
-Des sculptures sur bois.
-Treize sculptures inspirées des signes de divination du fâ.
-Patrimoine végétal
-Des arbres pouvant aller jusqu’à cinquante mètres de haut : c’est l’exemple de l’Iroko se trouvant à l’entrée du jardin. Cet arbre qui est vieux de plus de 300 ans mesure près de 40 mètres de haut et plus de 10 mètres de circonférence. Il est le symbole de l'histoire du Bénin et selon les croyances béninoises servirait de demeure aux esprits.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le conservatoire (ou Musée des Plantes) et l'espace détente constituent les deux sites du Jardin des Plantes et de la Nature.  Il couvre une superficie totale de 3,8 hectares et compte environ 200 espèces répertoriées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jardin_des_plantes_et_de_la_nature</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_des_plantes_et_de_la_nature</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Patrimoine culturel et historique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Des sculptures sur bois.
+Treize sculptures inspirées des signes de divination du fâ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jardin_des_plantes_et_de_la_nature</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_des_plantes_et_de_la_nature</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Patrimoine végétal</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des arbres pouvant aller jusqu’à cinquante mètres de haut : c’est l’exemple de l’Iroko se trouvant à l’entrée du jardin. Cet arbre qui est vieux de plus de 300 ans mesure près de 40 mètres de haut et plus de 10 mètres de circonférence. Il est le symbole de l'histoire du Bénin et selon les croyances béninoises servirait de demeure aux esprits.
 Des arbres centenaires tel que l'Iroko géant sous lesquels se faisaient des offrandes,
 Des plantes médicinales,
 Des plantes ornementales,
@@ -562,7 +647,43 @@
 			Tronc du Kolatier géant (Cola gigantea)
 			Iroko (Milicia excelsa)
 			Fromager centenaire (Ceiba pentandra)
-Patrimoine faunistique
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jardin_des_plantes_et_de_la_nature</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_des_plantes_et_de_la_nature</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Collections</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Patrimoine faunistique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 des oiseaux
 des singes noirs à ventre blanc
 des cercopithèques
